--- a/Degree vs Income Data.xlsx
+++ b/Degree vs Income Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chase\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Spring 2025\Data Analysis\Git\Rasmussen_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50383518-8983-4659-9FBE-5CEDAA2EB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2C8BD-CECF-4665-9C91-A36A6687A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{17DF6AB7-E1C0-4336-B9BD-1C0CD15E760E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{17DF6AB7-E1C0-4336-B9BD-1C0CD15E760E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Bachelors Degree</t>
   </si>
@@ -495,7 +495,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,36 +894,6 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1278,36 +1248,6 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
